--- a/Revision Sheets/Binary Trees.xlsx
+++ b/Revision Sheets/Binary Trees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Documents\DSA\Revision Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC74270-DDEF-4F05-8AF8-276A6D864042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC931D9-349C-41F5-A47D-F08CACE6BC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D51DD24C-8F3E-4528-92AC-0360A43EFAFF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Question</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t xml:space="preserve">Create a sepeate fun solve which is exactly leight calHeight, pass diameter as a parameter and update diameter after int lh, int rh as dia = max(dia, lh + rh). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Define a Queue that initially has root. While(!q.empty())=&gt; run a for loop for current q.size() and pop the elements of that level (where each is created as node for further operations). Push in node-&gt;left &amp; node-&gt;right in the queue if it exists and push node-&gt;val in level. After each for loop, push level to ans. </t>
   </si>
 </sst>
 </file>
@@ -581,6 +584,9 @@
       <c r="A11" t="s">
         <v>8</v>
       </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">

--- a/Revision Sheets/Binary Trees.xlsx
+++ b/Revision Sheets/Binary Trees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Documents\DSA\Revision Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC931D9-349C-41F5-A47D-F08CACE6BC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE172073-6401-45AC-A047-C0813B143A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D51DD24C-8F3E-4528-92AC-0360A43EFAFF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Question</t>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t xml:space="preserve">Define a Queue that initially has root. While(!q.empty())=&gt; run a for loop for current q.size() and pop the elements of that level (where each is created as node for further operations). Push in node-&gt;left &amp; node-&gt;right in the queue if it exists and push node-&gt;val in level. After each for loop, push level to ans. </t>
+  </si>
+  <si>
+    <t>Find the path from node1 and node2 individually and store them in 2 separate arrays. Then traverse through that array and find the last common value which will be the LCA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traverse through the tree. If you find NULL or node1 or node2, return the node. Left = f(root-&gt;left, p,q) Right = f(root-&gt;right, p,q). If left is NULL then return right. If right is NULL return left. Else, return root. </t>
+  </si>
+  <si>
+    <t>Take flag=true initially and alternately change flag bw true &amp; false after each level. true means to push elements L-&gt;R in ans, false means R-&gt;L. if(leftToRight == true) index = i;else index = size - i - 1; row[index]= curr-&gt;val;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left boundary excluding leaf, leaf, Right boundary in reverse exclusing leaf. </t>
   </si>
 </sst>
 </file>
@@ -505,7 +517,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -592,11 +604,17 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -671,6 +689,12 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
